--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JenniferC</t>
+          <t>FinleyLu</t>
         </is>
       </c>
       <c r="B2">
-        <f>0.25</f>
+        <f>7.5</f>
         <v/>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -484,11 +484,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FinleyLu</t>
+          <t>JenniferC</t>
         </is>
       </c>
       <c r="B4">
-        <f>3.0</f>
+        <f>0.25</f>
         <v/>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -497,11 +497,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JenniferChiu</t>
+          <t>FinleyLu</t>
         </is>
       </c>
       <c r="B5">
-        <f>7.0</f>
+        <f>3.0</f>
         <v/>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -510,11 +510,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JenniferC</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B6">
-        <f>3.0</f>
+        <f>6.0</f>
         <v/>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -523,11 +523,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JasonL</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B7">
-        <f>5.0</f>
+        <f>7.0</f>
         <v/>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -536,11 +536,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JasonL</t>
+          <t>JenniferC</t>
         </is>
       </c>
       <c r="B8">
-        <f>4.0</f>
+        <f>3.0</f>
         <v/>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>1.5</f>
+        <f>5.0</f>
         <v/>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -562,11 +562,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JenniferChiu</t>
+          <t>JasonL</t>
         </is>
       </c>
       <c r="B10">
-        <f>1.0</f>
+        <f>4.0</f>
         <v/>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>10.0</f>
+        <f>1.5</f>
         <v/>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>6.0</f>
+        <f>9.0</f>
         <v/>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -601,11 +601,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zhaochen</t>
+          <t>JasonL</t>
         </is>
       </c>
       <c r="B13">
-        <f>2.75</f>
+        <f>13.0</f>
         <v/>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -614,11 +614,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FinleyLu</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B14">
-        <f>21.0</f>
+        <f>1.0</f>
         <v/>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -627,11 +627,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sylvia</t>
+          <t>zhaochen</t>
         </is>
       </c>
       <c r="B15">
-        <f>1.0</f>
+        <f>2.75</f>
         <v/>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -640,11 +640,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zhaochen</t>
+          <t>FinleyLu</t>
         </is>
       </c>
       <c r="B16">
-        <f>20.0</f>
+        <f>21.0</f>
         <v/>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -653,11 +653,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Oscarsu</t>
+          <t>sylvia</t>
         </is>
       </c>
       <c r="B17">
-        <f>3.0</f>
+        <f>1.0</f>
         <v/>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -666,11 +666,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VincentLiu</t>
+          <t>zhaochen</t>
         </is>
       </c>
       <c r="B18">
-        <f>18.0</f>
+        <f>20.0</f>
         <v/>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -692,11 +692,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oscarsu</t>
+          <t>VincentLiu</t>
         </is>
       </c>
       <c r="B20">
-        <f>2.0</f>
+        <f>18.0</f>
         <v/>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -705,11 +705,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AdaH</t>
+          <t>Oscarsu</t>
         </is>
       </c>
       <c r="B21">
-        <f>32.0</f>
+        <f>3.0</f>
         <v/>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -718,11 +718,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TerryC</t>
+          <t>Oscarsu</t>
         </is>
       </c>
       <c r="B22">
-        <f>32.0</f>
+        <f>2.0</f>
         <v/>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -731,11 +731,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JenniferC</t>
+          <t>SventaHe</t>
         </is>
       </c>
       <c r="B23">
-        <f>4.0</f>
+        <f>33.0</f>
         <v/>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -744,11 +744,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JenniferC</t>
+          <t>SventaHe</t>
         </is>
       </c>
       <c r="B24">
-        <f>0.25</f>
+        <f>4.0</f>
         <v/>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -757,11 +757,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KamilL</t>
+          <t>AdaH</t>
         </is>
       </c>
       <c r="B25">
-        <f>10.0</f>
+        <f>32.0</f>
         <v/>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -770,11 +770,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KamilL</t>
+          <t>TerryC</t>
         </is>
       </c>
       <c r="B26">
-        <f>0.5</f>
+        <f>32.0</f>
         <v/>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -783,11 +783,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EddieL</t>
+          <t>SherryL</t>
         </is>
       </c>
       <c r="B27">
-        <f>0.5</f>
+        <f>16.0</f>
         <v/>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B28">
-        <f>3.0</f>
+        <f>0.5</f>
         <v/>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -809,11 +809,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EddieL</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B29">
-        <f>3.5</f>
+        <f>0.5</f>
         <v/>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B30">
-        <f>2.0</f>
+        <f>4.0</f>
         <v/>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B31">
-        <f>2.0</f>
+        <f>0.5</f>
         <v/>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -848,11 +848,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KamilL</t>
+          <t>JenniferC</t>
         </is>
       </c>
       <c r="B32">
-        <f>5.0</f>
+        <f>4.0</f>
         <v/>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -861,11 +861,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KamilL</t>
+          <t>JenniferC</t>
         </is>
       </c>
       <c r="B33">
-        <f>2.0</f>
+        <f>0.25</f>
         <v/>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -874,11 +874,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JenniferChiu</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B34">
-        <f>1.0</f>
+        <f>12.0</f>
         <v/>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -887,11 +887,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JenniferChiu</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B35">
-        <f>5.0</f>
+        <f>0.5</f>
         <v/>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B36">
-        <f>10.0</f>
+        <f>0.5</f>
         <v/>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -913,11 +913,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JasonL</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B37">
-        <f>16.0</f>
+        <f>3.0</f>
         <v/>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -926,11 +926,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KamilL</t>
+          <t>EddieL</t>
         </is>
       </c>
       <c r="B38">
-        <f>4.5</f>
+        <f>3.5</f>
         <v/>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -939,11 +939,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KamilL</t>
+          <t>EddieL</t>
         </is>
       </c>
       <c r="B39">
-        <f>7.0</f>
+        <f>2.0</f>
         <v/>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B40">
-        <f>6.0</f>
+        <f>2.5</f>
         <v/>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -965,11 +965,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EddieL</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B41">
-        <f>12.0</f>
+        <f>5.0</f>
         <v/>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -978,11 +978,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WayneChen</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B42">
-        <f>10.0</f>
+        <f>2.0</f>
         <v/>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -991,11 +991,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WayneChen</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B43">
-        <f>5.0</f>
+        <f>1.0</f>
         <v/>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1004,11 +1004,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WayneChen</t>
+          <t>JenniferChiu</t>
         </is>
       </c>
       <c r="B44">
-        <f>8.0</f>
+        <f>5.0</f>
         <v/>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1017,11 +1017,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VickyChen</t>
+          <t>EddieL</t>
         </is>
       </c>
       <c r="B45">
-        <f>100.0</f>
+        <f>10.0</f>
         <v/>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1030,11 +1030,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VickyChen</t>
+          <t>JasonL</t>
         </is>
       </c>
       <c r="B46">
-        <f>8.0</f>
+        <f>24.0</f>
         <v/>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1043,11 +1043,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IanWu</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B47">
-        <f>16.0</f>
+        <f>4.5</f>
         <v/>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1056,11 +1056,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Oscarsu</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B48">
-        <f>13.0</f>
+        <f>7.0</f>
         <v/>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1069,11 +1069,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IanWu</t>
+          <t>KamilL</t>
         </is>
       </c>
       <c r="B49">
-        <f>16.0</f>
+        <f>6.0</f>
         <v/>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1082,11 +1082,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zhaochen</t>
+          <t>EddieL</t>
         </is>
       </c>
       <c r="B50">
-        <f>5.5</f>
+        <f>12.0</f>
         <v/>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1095,11 +1095,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FinleyLu</t>
+          <t>WayneChen</t>
         </is>
       </c>
       <c r="B51">
-        <f>1.5</f>
+        <f>10.0</f>
         <v/>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1108,11 +1108,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FinleyLu</t>
+          <t>WayneChen</t>
         </is>
       </c>
       <c r="B52">
-        <f>1.5</f>
+        <f>5.0</f>
         <v/>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1121,11 +1121,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KiuTasi</t>
+          <t>WayneChen</t>
         </is>
       </c>
       <c r="B53">
-        <f>1.25</f>
+        <f>8.0</f>
         <v/>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1134,11 +1134,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FinleyLu</t>
+          <t>VickyChen</t>
         </is>
       </c>
       <c r="B54">
-        <f>1.42</f>
+        <f>100.0</f>
         <v/>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1147,11 +1147,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>zhaochen</t>
+          <t>VickyChen</t>
         </is>
       </c>
       <c r="B55">
-        <f>1.0</f>
+        <f>8.0</f>
         <v/>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1160,11 +1160,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ArmdanH</t>
+          <t>IanWu</t>
         </is>
       </c>
       <c r="B56">
-        <f>24.0</f>
+        <f>16.0</f>
         <v/>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1173,11 +1173,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GaryW</t>
+          <t>Oscarsu</t>
         </is>
       </c>
       <c r="B57">
-        <f>40.0</f>
+        <f>13.0</f>
         <v/>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1186,11 +1186,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ArielW</t>
+          <t>IanWu</t>
         </is>
       </c>
       <c r="B58">
-        <f>24.0</f>
+        <f>16.0</f>
         <v/>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1199,11 +1199,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Oscarsu</t>
+          <t>zhaochen</t>
         </is>
       </c>
       <c r="B59">
-        <f>5.0</f>
+        <f>5.5</f>
         <v/>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1212,11 +1212,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ArmdanH</t>
+          <t>FinleyLu</t>
         </is>
       </c>
       <c r="B60">
-        <f>8.0</f>
+        <f>1.5</f>
         <v/>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1225,11 +1225,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KiuTasi</t>
+          <t>oreoli</t>
         </is>
       </c>
       <c r="B61">
-        <f>14.5</f>
+        <f>28.0</f>
         <v/>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1238,11 +1238,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KiuTasi</t>
+          <t>oreoli</t>
         </is>
       </c>
       <c r="B62">
-        <f>14.5</f>
+        <f>4.0</f>
         <v/>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1251,11 +1251,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KiuTasi</t>
+          <t>FinleyLu</t>
         </is>
       </c>
       <c r="B63">
-        <f>14.5</f>
+        <f>1.5</f>
         <v/>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1264,11 +1264,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VickyChen</t>
+          <t>FinleyLu</t>
         </is>
       </c>
       <c r="B64">
-        <f>40.0</f>
+        <f>1.42</f>
         <v/>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sylvia</t>
+          <t>zhaochen</t>
         </is>
       </c>
       <c r="B65">
@@ -1290,11 +1290,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sylvia</t>
+          <t>KiuTasi</t>
         </is>
       </c>
       <c r="B66">
-        <f>13.0</f>
+        <f>1.25</f>
         <v/>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1303,11 +1303,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Oscarsu</t>
+          <t>SherryL</t>
         </is>
       </c>
       <c r="B67">
-        <f>2.0</f>
+        <f>8.0</f>
         <v/>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1316,11 +1316,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>YaoTseng</t>
+          <t>SventaHe</t>
         </is>
       </c>
       <c r="B68">
-        <f>1.0</f>
+        <f>5.0</f>
         <v/>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1329,11 +1329,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IanWu</t>
+          <t>FreemanYao</t>
         </is>
       </c>
       <c r="B69">
-        <f>1.0</f>
+        <f>16.0</f>
         <v/>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1342,282 +1342,594 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JenniferChiu</t>
+          <t>ArielW</t>
         </is>
       </c>
       <c r="B70">
-        <f>3.0</f>
+        <f>8.0</f>
         <v/>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ArmdanH</t>
+        </is>
+      </c>
+      <c r="B71">
+        <f>32.0</f>
+        <v/>
+      </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71">
-        <f>SUMIF(A:A,"",B:B)</f>
-        <v/>
-      </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>GaryW</t>
         </is>
       </c>
-      <c r="D72">
-        <f>SUMIF(A:A,"GaryW",B:B)</f>
-        <v/>
-      </c>
+      <c r="B72">
+        <f>40.0</f>
+        <v/>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>VincentLiu</t>
-        </is>
-      </c>
-      <c r="D73">
-        <f>SUMIF(A:A,"VincentLiu",B:B)</f>
-        <v/>
-      </c>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ArielW</t>
+        </is>
+      </c>
+      <c r="B73">
+        <f>32.0</f>
+        <v/>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>TerryC</t>
-        </is>
-      </c>
-      <c r="D74">
-        <f>SUMIF(A:A,"TerryC",B:B)</f>
-        <v/>
-      </c>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FreemanYao</t>
+        </is>
+      </c>
+      <c r="B74">
+        <f>16.0</f>
+        <v/>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>AdaH</t>
-        </is>
-      </c>
-      <c r="D75">
-        <f>SUMIF(A:A,"AdaH",B:B)</f>
-        <v/>
-      </c>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SventaHe</t>
+        </is>
+      </c>
+      <c r="B75">
+        <f>3.0</f>
+        <v/>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SventaHe</t>
+        </is>
+      </c>
+      <c r="B76">
+        <f>1.0</f>
+        <v/>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ArielW</t>
+        </is>
+      </c>
+      <c r="B77">
+        <f>8.0</f>
+        <v/>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oscarsu</t>
+        </is>
+      </c>
+      <c r="B78">
+        <f>5.0</f>
+        <v/>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ArmdanH</t>
+        </is>
+      </c>
+      <c r="B79">
+        <f>8.0</f>
+        <v/>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sylvia</t>
+        </is>
+      </c>
+      <c r="B80">
+        <f>0.5</f>
+        <v/>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>KiuTasi</t>
+        </is>
+      </c>
+      <c r="B81">
+        <f>14.5</f>
+        <v/>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>KiuTasi</t>
+        </is>
+      </c>
+      <c r="B82">
+        <f>14.5</f>
+        <v/>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>KiuTasi</t>
+        </is>
+      </c>
+      <c r="B83">
+        <f>14.5</f>
+        <v/>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VickyChen</t>
+        </is>
+      </c>
+      <c r="B84">
+        <f>40.0</f>
+        <v/>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sylvia</t>
+        </is>
+      </c>
+      <c r="B85">
+        <f>1.0</f>
+        <v/>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sylvia</t>
+        </is>
+      </c>
+      <c r="B86">
+        <f>13.0</f>
+        <v/>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oscarsu</t>
+        </is>
+      </c>
+      <c r="B87">
+        <f>2.0</f>
+        <v/>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>YaoTseng</t>
+        </is>
+      </c>
+      <c r="B88">
+        <f>1.0</f>
+        <v/>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>IanWu</t>
+        </is>
+      </c>
+      <c r="B89">
+        <f>1.0</f>
+        <v/>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>JenniferChiu</t>
         </is>
       </c>
-      <c r="D76">
-        <f>SUMIF(A:A,"JenniferChiu",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>WayneChen</t>
-        </is>
-      </c>
-      <c r="D77">
-        <f>SUMIF(A:A,"WayneChen",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>YaoTseng</t>
-        </is>
-      </c>
-      <c r="D78">
-        <f>SUMIF(A:A,"YaoTseng",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ArmdanH</t>
-        </is>
-      </c>
-      <c r="D79">
-        <f>SUMIF(A:A,"ArmdanH",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>sylvia</t>
-        </is>
-      </c>
-      <c r="D80">
-        <f>SUMIF(A:A,"sylvia",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>EddieL</t>
-        </is>
-      </c>
-      <c r="D81">
-        <f>SUMIF(A:A,"EddieL",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>ArielW</t>
-        </is>
-      </c>
-      <c r="D82">
-        <f>SUMIF(A:A,"ArielW",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Oscarsu</t>
-        </is>
-      </c>
-      <c r="D83">
-        <f>SUMIF(A:A,"Oscarsu",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>IanWu</t>
-        </is>
-      </c>
-      <c r="D84">
-        <f>SUMIF(A:A,"IanWu",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>JasonL</t>
-        </is>
-      </c>
-      <c r="D85">
-        <f>SUMIF(A:A,"JasonL",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>zhaochen</t>
-        </is>
-      </c>
-      <c r="D86">
-        <f>SUMIF(A:A,"zhaochen",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>KiuTasi</t>
-        </is>
-      </c>
-      <c r="D87">
-        <f>SUMIF(A:A,"KiuTasi",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FinleyLu</t>
-        </is>
-      </c>
-      <c r="D88">
-        <f>SUMIF(A:A,"FinleyLu",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>VickyChen</t>
-        </is>
-      </c>
-      <c r="D89">
-        <f>SUMIF(A:A,"VickyChen",B:B)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>JenniferC</t>
-        </is>
-      </c>
-      <c r="D90">
-        <f>SUMIF(A:A,"JenniferC",B:B)</f>
-        <v/>
-      </c>
+      <c r="B90">
+        <f>4.0</f>
+        <v/>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
+      <c r="C91" t="inlineStr"/>
+      <c r="D91">
+        <f>SUMIF(A:A,"",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SherryL</t>
+        </is>
+      </c>
+      <c r="D92">
+        <f>SUMIF(A:A,"SherryL",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>GaryW</t>
+        </is>
+      </c>
+      <c r="D93">
+        <f>SUMIF(A:A,"GaryW",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>YaoTseng</t>
+        </is>
+      </c>
+      <c r="D94">
+        <f>SUMIF(A:A,"YaoTseng",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>WayneChen</t>
+        </is>
+      </c>
+      <c r="D95">
+        <f>SUMIF(A:A,"WayneChen",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>KiuTasi</t>
+        </is>
+      </c>
+      <c r="D96">
+        <f>SUMIF(A:A,"KiuTasi",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>JasonL</t>
+        </is>
+      </c>
+      <c r="D97">
+        <f>SUMIF(A:A,"JasonL",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>TerryC</t>
+        </is>
+      </c>
+      <c r="D98">
+        <f>SUMIF(A:A,"TerryC",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>EddieL</t>
+        </is>
+      </c>
+      <c r="D99">
+        <f>SUMIF(A:A,"EddieL",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>JenniferC</t>
+        </is>
+      </c>
+      <c r="D100">
+        <f>SUMIF(A:A,"JenniferC",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SventaHe</t>
+        </is>
+      </c>
+      <c r="D101">
+        <f>SUMIF(A:A,"SventaHe",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sylvia</t>
+        </is>
+      </c>
+      <c r="D102">
+        <f>SUMIF(A:A,"sylvia",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>oreoli</t>
+        </is>
+      </c>
+      <c r="D103">
+        <f>SUMIF(A:A,"oreoli",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FreemanYao</t>
+        </is>
+      </c>
+      <c r="D104">
+        <f>SUMIF(A:A,"FreemanYao",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>zhaochen</t>
+        </is>
+      </c>
+      <c r="D105">
+        <f>SUMIF(A:A,"zhaochen",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Oscarsu</t>
+        </is>
+      </c>
+      <c r="D106">
+        <f>SUMIF(A:A,"Oscarsu",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>JenniferChiu</t>
+        </is>
+      </c>
+      <c r="D107">
+        <f>SUMIF(A:A,"JenniferChiu",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>FinleyLu</t>
+        </is>
+      </c>
+      <c r="D108">
+        <f>SUMIF(A:A,"FinleyLu",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ArmdanH</t>
+        </is>
+      </c>
+      <c r="D109">
+        <f>SUMIF(A:A,"ArmdanH",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>VincentLiu</t>
+        </is>
+      </c>
+      <c r="D110">
+        <f>SUMIF(A:A,"VincentLiu",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
         <is>
           <t>KamilL</t>
         </is>
       </c>
-      <c r="D91">
+      <c r="D111">
         <f>SUMIF(A:A,"KamilL",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>VickyChen</t>
+        </is>
+      </c>
+      <c r="D112">
+        <f>SUMIF(A:A,"VickyChen",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>IanWu</t>
+        </is>
+      </c>
+      <c r="D113">
+        <f>SUMIF(A:A,"IanWu",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ArielW</t>
+        </is>
+      </c>
+      <c r="D114">
+        <f>SUMIF(A:A,"ArielW",B:B)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>AdaH</t>
+        </is>
+      </c>
+      <c r="D115">
+        <f>SUMIF(A:A,"AdaH",B:B)</f>
         <v/>
       </c>
     </row>
